--- a/data/Labor Force Statistics from the Current Population Survey, 40 matrixes/Unemployment Rate - White - LNS14000003.xlsx
+++ b/data/Labor Force Statistics from the Current Population Survey, 40 matrixes/Unemployment Rate - White - LNS14000003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyuan/Desktop/info_201/mango-mochi-project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziyuan/Desktop/info_201/mango-mochi-project/data/Labor Force Statistics from the Current Population Survey, 40 matrixes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B91E57-45AE-4E43-887D-EB155CAD77FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CDF595-696C-3747-BE7F-5F8F1AAA486B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#0.0"/>
+    <numFmt numFmtId="164" formatCode="#0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -210,24 +210,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,218 +599,218 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B2" s="3">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="C2" s="3">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D2" s="3">
-        <v>3.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E2" s="3">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="F2" s="3">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="G2" s="3">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H2" s="3">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="I2" s="3">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="J2" s="3">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="K2" s="3">
-        <v>3.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L2" s="3">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="M2" s="3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B3" s="3">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>3.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D3" s="3">
-        <v>3.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E3" s="3">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I3" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J3" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K3" s="3">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L3" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M3" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E4" s="3">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="H4" s="3">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="J4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="M4" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B5" s="3">
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D5" s="3">
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>5.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F5" s="3">
-        <v>5.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G5" s="3">
-        <v>5.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H5" s="3">
-        <v>5.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I5" s="3">
-        <v>5.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J5" s="3">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="K5" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="L5" s="3">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="C6" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D6" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H6" s="3">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I6" s="3">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J6" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="K6" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L6" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="M6" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B7" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C7" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D7" s="3">
         <v>4.5</v>
@@ -819,633 +819,510 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F7" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="G7" s="3">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="I7" s="3">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="J7" s="3">
-        <v>4.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="K7" s="3">
-        <v>4.4000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="L7" s="3">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="M7" s="3">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B8" s="3">
-        <v>4.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="C8" s="3">
-        <v>4.0999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="F8" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="G8" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I8" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.9</v>
       </c>
       <c r="J8" s="3">
-        <v>3.9</v>
+        <v>8.9</v>
       </c>
       <c r="K8" s="3">
-        <v>3.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L8" s="3">
-        <v>4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M8" s="3">
-        <v>3.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B9" s="3">
-        <v>4.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C9" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.9</v>
       </c>
       <c r="D9" s="3">
-        <v>3.8</v>
+        <v>8.9</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
-        <v>3.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G9" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="H9" s="3">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="I9" s="3">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="J9" s="3">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="K9" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="L9" s="3">
-        <v>4.2</v>
+        <v>8.9</v>
       </c>
       <c r="M9" s="3">
-        <v>4.4000000000000004</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="3">
-        <v>4.4000000000000004</v>
+        <v>8.1</v>
       </c>
       <c r="C10" s="3">
-        <v>4.4000000000000004</v>
+        <v>8.1</v>
       </c>
       <c r="D10" s="3">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>4.4000000000000004</v>
+        <v>8.1</v>
       </c>
       <c r="F10" s="3">
-        <v>4.8</v>
+        <v>7.9</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>8.1</v>
       </c>
       <c r="H10" s="3">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="I10" s="3">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="J10" s="3">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="K10" s="3">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="L10" s="3">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="M10" s="3">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B11" s="3">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="C11" s="3">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D11" s="3">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="E11" s="3">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="F11" s="3">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="G11" s="3">
-        <v>8.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="H11" s="3">
-        <v>8.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="I11" s="3">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="J11" s="3">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="3">
-        <v>9.1999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="L11" s="3">
-        <v>9.1999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="M11" s="3">
-        <v>9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="3">
-        <v>8.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="C12" s="3">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="D12" s="3">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="E12" s="3">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="F12" s="3">
-        <v>8.6999999999999993</v>
+        <v>6.7</v>
       </c>
       <c r="G12" s="3">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="H12" s="3">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I12" s="3">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="J12" s="3">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="K12" s="3">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="L12" s="3">
-        <v>8.9</v>
+        <v>6.1</v>
       </c>
       <c r="M12" s="3">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B13" s="3">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="C13" s="3">
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="E13" s="3">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="F13" s="3">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="G13" s="3">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="H13" s="3">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="I13" s="3">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="J13" s="3">
-        <v>7.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K13" s="3">
-        <v>7.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L13" s="3">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="M13" s="3">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B14" s="3">
-        <v>7.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C14" s="3">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="D14" s="3">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="E14" s="3">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="F14" s="3">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="G14" s="3">
-        <v>7.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H14" s="3">
-        <v>7.3</v>
+        <v>4.5</v>
       </c>
       <c r="I14" s="3">
-        <v>7.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J14" s="3">
-        <v>7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K14" s="3">
-        <v>6.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L14" s="3">
-        <v>6.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M14" s="3">
-        <v>6.9</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B15" s="3">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="C15" s="3">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="D15" s="3">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="E15" s="3">
-        <v>6.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F15" s="3">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="G15" s="3">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="H15" s="3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" s="3">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" s="3">
-        <v>6.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K15" s="3">
-        <v>6.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L15" s="3">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="M15" s="3">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B16" s="3">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="C16" s="3">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="E16" s="3">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="F16" s="3">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="G16" s="3">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="H16" s="3">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="I16" s="3">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="J16" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="K16" s="3">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="L16" s="3">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="M16" s="3">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B17" s="3">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="C17" s="3">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D17" s="3">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="E17" s="3">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="F17" s="3">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="G17" s="3">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="H17" s="3">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I17" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="J17" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="K17" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="L17" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="M17" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B18" s="3">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="C18" s="3">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D18" s="3">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="E18" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="F18" s="3">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="G18" s="3">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H18" s="3">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I18" s="3">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="J18" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="K18" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="L18" s="3">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M18" s="3">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B19" s="3">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="C19" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
-        <v>3.9</v>
-      </c>
       <c r="E19" s="3">
-        <v>3.9</v>
+        <v>14.2</v>
       </c>
       <c r="F19" s="3">
-        <v>3.8</v>
+        <v>12.4</v>
       </c>
       <c r="G19" s="3">
-        <v>3.8</v>
+        <v>10.1</v>
       </c>
       <c r="H19" s="3">
-        <v>3.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I19" s="3">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="J19" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="K19" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="J22" s="3">
         <v>7</v>
       </c>
     </row>
@@ -1470,7 +1347,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
@@ -1480,7 +1357,7 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -1501,7 +1378,7 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
@@ -1510,7 +1387,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
@@ -1523,7 +1400,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
@@ -1531,11 +1408,11 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6"/>
@@ -1543,11 +1420,11 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6"/>
@@ -1559,7 +1436,7 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6"/>
@@ -1571,7 +1448,7 @@
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6"/>
@@ -1583,7 +1460,7 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
@@ -1593,17 +1470,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
